--- a/data/trans_dic/P19C08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,32 +725,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,92</t>
+          <t>0,23; 2,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,74</t>
+          <t>0,47; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,53</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,31</t>
+          <t>0,1; 1,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,17</t>
+          <t>0,14; 1,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,47</t>
+          <t>0,15; 1,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,48</t>
+          <t>0,29; 2,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,0</t>
+          <t>0,19; 1,05</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,24</t>
+          <t>0,56; 3,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,79</t>
+          <t>0,12; 1,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,08</t>
+          <t>0,45; 2,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,4</t>
+          <t>0,14; 1,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,81</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,94</t>
+          <t>0,12; 0,93</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1010,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,44</t>
+          <t>0,1; 1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1030,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,9</t>
+          <t>0,0; 5,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1050,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,3</t>
+          <t>0,14; 1,34</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,05</t>
+          <t>0,11; 0,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,81</t>
+          <t>0,08; 0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,52</t>
+          <t>0,27; 1,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,23</t>
+          <t>0,15; 1,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,73</t>
+          <t>0,13; 0,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,91</t>
+          <t>0,23; 0,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,49</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,67</t>
+          <t>0,12; 0,64</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1290,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,66</t>
+          <t>0,47; 2,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,08</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,46</t>
+          <t>0,21; 2,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,73</t>
+          <t>0,14; 1,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,66</t>
+          <t>0,13; 1,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,6</t>
+          <t>0,38; 1,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,94</t>
+          <t>0,09; 0,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,78</t>
+          <t>0,06; 1,67</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1444,12 +1445,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,94</t>
+          <t>0,1; 0,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,42</t>
+          <t>0,32; 1,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,12</t>
+          <t>0,19; 1,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,89</t>
+          <t>0,08; 1,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,2</t>
+          <t>0,27; 1,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,85</t>
+          <t>0,11; 0,81</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,06</t>
+          <t>0,34; 0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,42</t>
+          <t>0,04; 0,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,87</t>
+          <t>0,22; 0,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,85</t>
+          <t>0,3; 0,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,94</t>
+          <t>0,36; 0,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,47</t>
+          <t>0,07; 0,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,66</t>
+          <t>0,24; 0,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,67</t>
+          <t>0,28; 0,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,88</t>
+          <t>0,43; 0,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,35</t>
+          <t>0,09; 0,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,63</t>
+          <t>0,28; 0,61</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por selladores, aplicación de fluor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5382</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2461</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6342</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>876; 8026</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1842; 15942</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4905</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>478; 7686</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5438</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5778</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>601; 5587</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1008; 8481</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1967; 15468</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5223</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1816; 9819</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4802</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6621</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3364</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5575</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6785</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5713</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1875; 10675</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6762</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5355</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>443; 6338</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2879; 13231</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>965; 9218</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5666</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1008; 7669</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3060</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2696</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8123</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6494</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>638; 10486</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1919</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6054</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3105</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12239</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10182</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1134; 11040</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2893</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4832</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4883</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7724</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2177</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>929; 7642</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>813; 7631</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4736</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5131</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7059</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1907; 10913</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6722</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1486; 12025</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1883; 11572</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3880; 14954</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7561</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2383; 12494</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4844</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2178</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8736</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3091</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5556</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1966</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1887; 10540</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4644</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 19185</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>938; 11306</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>953; 11342</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7052</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3497</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>929; 10058</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4024; 18555</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>917; 8168</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>740; 20975</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3244</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6207</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3481</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7141</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3481</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5754</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4751</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4217</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>909; 9104</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2989; 12624</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1396; 8741</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>965; 11525</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3077; 13963</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1116; 7867</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8367</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13652</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>14810</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>18832</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13529</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>23177</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>36875</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>10049</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>27181</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3771; 14987</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9975; 28374</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1038; 10314</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7059; 26611</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8295; 25233</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11288; 29267</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1937; 13200</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8237; 21182</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14774; 34413</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>26186; 52977</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4723; 18904</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>18901; 41402</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
